--- a/uploads/database.xlsx
+++ b/uploads/database.xlsx
@@ -396,7 +396,7 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Codigo del Area Conoc.</t>
+          <t>Codigo area.</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">

--- a/uploads/database.xlsx
+++ b/uploads/database.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J264"/>
+  <dimension ref="A1:J464"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7676,16 +7676,8 @@
           <t>1</t>
         </is>
       </c>
-      <c r="G183" t="inlineStr">
-        <is>
-          <t>44742835</t>
-        </is>
-      </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
+      <c r="G183" t="inlineStr"/>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
         <is>
           <t>75</t>
@@ -7724,16 +7716,8 @@
           <t>2</t>
         </is>
       </c>
-      <c r="G184" t="inlineStr">
-        <is>
-          <t>44742835</t>
-        </is>
-      </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
+      <c r="G184" t="inlineStr"/>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
           <t>75</t>
@@ -7772,16 +7756,8 @@
           <t>41</t>
         </is>
       </c>
-      <c r="G185" t="inlineStr">
-        <is>
-          <t>44742835</t>
-        </is>
-      </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
+      <c r="G185" t="inlineStr"/>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr">
         <is>
           <t>75</t>
@@ -7820,16 +7796,8 @@
           <t>42</t>
         </is>
       </c>
-      <c r="G186" t="inlineStr">
-        <is>
-          <t>44742835</t>
-        </is>
-      </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
+      <c r="G186" t="inlineStr"/>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr">
         <is>
           <t>75</t>
@@ -7868,16 +7836,8 @@
           <t>43</t>
         </is>
       </c>
-      <c r="G187" t="inlineStr">
-        <is>
-          <t>44742835</t>
-        </is>
-      </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
+      <c r="G187" t="inlineStr"/>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr">
         <is>
           <t>75</t>
@@ -10964,6 +10924,8014 @@
         </is>
       </c>
       <c r="J264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>40827</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr"/>
+      <c r="H265" t="inlineStr"/>
+      <c r="I265" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>40827</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr"/>
+      <c r="H266" t="inlineStr"/>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>40827</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr"/>
+      <c r="H267" t="inlineStr"/>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>40827</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr"/>
+      <c r="H268" t="inlineStr"/>
+      <c r="I268" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>40828</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr"/>
+      <c r="H269" t="inlineStr"/>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>40828</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr"/>
+      <c r="H270" t="inlineStr"/>
+      <c r="I270" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>40828</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr"/>
+      <c r="H271" t="inlineStr"/>
+      <c r="I271" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>40828</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr"/>
+      <c r="H272" t="inlineStr"/>
+      <c r="I272" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>40828</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr"/>
+      <c r="H273" t="inlineStr"/>
+      <c r="I273" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>40829</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr"/>
+      <c r="H274" t="inlineStr"/>
+      <c r="I274" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>40829</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr"/>
+      <c r="H275" t="inlineStr"/>
+      <c r="I275" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>40829</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr"/>
+      <c r="H276" t="inlineStr"/>
+      <c r="I276" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>40829</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr"/>
+      <c r="H277" t="inlineStr"/>
+      <c r="I277" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>40829</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr"/>
+      <c r="H278" t="inlineStr"/>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>40830</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr"/>
+      <c r="H279" t="inlineStr"/>
+      <c r="I279" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>40830</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr"/>
+      <c r="H280" t="inlineStr"/>
+      <c r="I280" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>40830</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr"/>
+      <c r="H281" t="inlineStr"/>
+      <c r="I281" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>40830</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr"/>
+      <c r="H282" t="inlineStr"/>
+      <c r="I282" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>40830</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr"/>
+      <c r="H283" t="inlineStr"/>
+      <c r="I283" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>40831</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr"/>
+      <c r="H284" t="inlineStr"/>
+      <c r="I284" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>40831</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr"/>
+      <c r="H285" t="inlineStr"/>
+      <c r="I285" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>40831</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr"/>
+      <c r="H286" t="inlineStr"/>
+      <c r="I286" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>40831</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr"/>
+      <c r="H287" t="inlineStr"/>
+      <c r="I287" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>40831</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr"/>
+      <c r="H288" t="inlineStr"/>
+      <c r="I288" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>40832</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr"/>
+      <c r="H289" t="inlineStr"/>
+      <c r="I289" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>40832</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr"/>
+      <c r="H290" t="inlineStr"/>
+      <c r="I290" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>40832</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr"/>
+      <c r="H291" t="inlineStr"/>
+      <c r="I291" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>40832</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr"/>
+      <c r="H292" t="inlineStr"/>
+      <c r="I292" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J292" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>40832</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr"/>
+      <c r="H293" t="inlineStr"/>
+      <c r="I293" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J293" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>40832</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr"/>
+      <c r="H294" t="inlineStr"/>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J294" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>40833</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr"/>
+      <c r="H295" t="inlineStr"/>
+      <c r="I295" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J295" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>40833</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr"/>
+      <c r="H296" t="inlineStr"/>
+      <c r="I296" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J296" t="inlineStr"/>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>40833</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr"/>
+      <c r="H297" t="inlineStr"/>
+      <c r="I297" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J297" t="inlineStr"/>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>40833</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr"/>
+      <c r="H298" t="inlineStr"/>
+      <c r="I298" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J298" t="inlineStr"/>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>40833</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr"/>
+      <c r="H299" t="inlineStr"/>
+      <c r="I299" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J299" t="inlineStr"/>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>40834</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr"/>
+      <c r="H300" t="inlineStr"/>
+      <c r="I300" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J300" t="inlineStr"/>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>40834</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr"/>
+      <c r="H301" t="inlineStr"/>
+      <c r="I301" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J301" t="inlineStr"/>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>40834</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr"/>
+      <c r="H302" t="inlineStr"/>
+      <c r="I302" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J302" t="inlineStr"/>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>40834</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr"/>
+      <c r="H303" t="inlineStr"/>
+      <c r="I303" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J303" t="inlineStr"/>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>40834</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr"/>
+      <c r="H304" t="inlineStr"/>
+      <c r="I304" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J304" t="inlineStr"/>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>40835</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>44742831</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I305" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J305" t="inlineStr"/>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>40835</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G306" t="inlineStr"/>
+      <c r="H306" t="inlineStr"/>
+      <c r="I306" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J306" t="inlineStr"/>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>40835</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr"/>
+      <c r="H307" t="inlineStr"/>
+      <c r="I307" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J307" t="inlineStr"/>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>40836</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G308" t="inlineStr"/>
+      <c r="H308" t="inlineStr"/>
+      <c r="I308" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J308" t="inlineStr"/>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>40836</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G309" t="inlineStr"/>
+      <c r="H309" t="inlineStr"/>
+      <c r="I309" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J309" t="inlineStr"/>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>40836</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G310" t="inlineStr"/>
+      <c r="H310" t="inlineStr"/>
+      <c r="I310" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J310" t="inlineStr"/>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>40837</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G311" t="inlineStr"/>
+      <c r="H311" t="inlineStr"/>
+      <c r="I311" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J311" t="inlineStr"/>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>40837</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G312" t="inlineStr"/>
+      <c r="H312" t="inlineStr"/>
+      <c r="I312" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J312" t="inlineStr"/>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>40837</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr"/>
+      <c r="H313" t="inlineStr"/>
+      <c r="I313" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J313" t="inlineStr"/>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>40838</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G314" t="inlineStr"/>
+      <c r="H314" t="inlineStr"/>
+      <c r="I314" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J314" t="inlineStr"/>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>40838</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G315" t="inlineStr"/>
+      <c r="H315" t="inlineStr"/>
+      <c r="I315" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J315" t="inlineStr"/>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>40838</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G316" t="inlineStr"/>
+      <c r="H316" t="inlineStr"/>
+      <c r="I316" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J316" t="inlineStr"/>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>40839</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G317" t="inlineStr"/>
+      <c r="H317" t="inlineStr"/>
+      <c r="I317" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J317" t="inlineStr"/>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>40839</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G318" t="inlineStr"/>
+      <c r="H318" t="inlineStr"/>
+      <c r="I318" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J318" t="inlineStr"/>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>40839</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G319" t="inlineStr"/>
+      <c r="H319" t="inlineStr"/>
+      <c r="I319" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J319" t="inlineStr"/>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>40840</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G320" t="inlineStr"/>
+      <c r="H320" t="inlineStr"/>
+      <c r="I320" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J320" t="inlineStr"/>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>40840</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G321" t="inlineStr"/>
+      <c r="H321" t="inlineStr"/>
+      <c r="I321" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J321" t="inlineStr"/>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>40840</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G322" t="inlineStr"/>
+      <c r="H322" t="inlineStr"/>
+      <c r="I322" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J322" t="inlineStr"/>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>40841</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G323" t="inlineStr"/>
+      <c r="H323" t="inlineStr"/>
+      <c r="I323" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J323" t="inlineStr"/>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>40841</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G324" t="inlineStr"/>
+      <c r="H324" t="inlineStr"/>
+      <c r="I324" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J324" t="inlineStr"/>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>40841</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G325" t="inlineStr"/>
+      <c r="H325" t="inlineStr"/>
+      <c r="I325" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J325" t="inlineStr"/>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>40842</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G326" t="inlineStr"/>
+      <c r="H326" t="inlineStr"/>
+      <c r="I326" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J326" t="inlineStr"/>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>40842</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G327" t="inlineStr"/>
+      <c r="H327" t="inlineStr"/>
+      <c r="I327" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J327" t="inlineStr"/>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>40842</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G328" t="inlineStr"/>
+      <c r="H328" t="inlineStr"/>
+      <c r="I328" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J328" t="inlineStr"/>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>40844</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G329" t="inlineStr"/>
+      <c r="H329" t="inlineStr"/>
+      <c r="I329" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J329" t="inlineStr"/>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>40844</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G330" t="inlineStr"/>
+      <c r="H330" t="inlineStr"/>
+      <c r="I330" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J330" t="inlineStr"/>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>40844</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G331" t="inlineStr"/>
+      <c r="H331" t="inlineStr"/>
+      <c r="I331" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J331" t="inlineStr"/>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>40845</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G332" t="inlineStr"/>
+      <c r="H332" t="inlineStr"/>
+      <c r="I332" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J332" t="inlineStr"/>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>40845</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr"/>
+      <c r="H333" t="inlineStr"/>
+      <c r="I333" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J333" t="inlineStr"/>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>40845</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G334" t="inlineStr"/>
+      <c r="H334" t="inlineStr"/>
+      <c r="I334" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J334" t="inlineStr"/>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>40846</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G335" t="inlineStr"/>
+      <c r="H335" t="inlineStr"/>
+      <c r="I335" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J335" t="inlineStr"/>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>40846</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G336" t="inlineStr"/>
+      <c r="H336" t="inlineStr"/>
+      <c r="I336" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J336" t="inlineStr"/>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>40846</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G337" t="inlineStr"/>
+      <c r="H337" t="inlineStr"/>
+      <c r="I337" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J337" t="inlineStr"/>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>40847</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G338" t="inlineStr"/>
+      <c r="H338" t="inlineStr"/>
+      <c r="I338" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J338" t="inlineStr"/>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>40847</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G339" t="inlineStr"/>
+      <c r="H339" t="inlineStr"/>
+      <c r="I339" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J339" t="inlineStr"/>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>40847</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G340" t="inlineStr"/>
+      <c r="H340" t="inlineStr"/>
+      <c r="I340" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J340" t="inlineStr"/>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>40848</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G341" t="inlineStr"/>
+      <c r="H341" t="inlineStr"/>
+      <c r="I341" t="inlineStr">
+        <is>
+          <t>570</t>
+        </is>
+      </c>
+      <c r="J341" t="inlineStr"/>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>40848</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G342" t="inlineStr"/>
+      <c r="H342" t="inlineStr"/>
+      <c r="I342" t="inlineStr">
+        <is>
+          <t>570</t>
+        </is>
+      </c>
+      <c r="J342" t="inlineStr"/>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>40848</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G343" t="inlineStr"/>
+      <c r="H343" t="inlineStr"/>
+      <c r="I343" t="inlineStr">
+        <is>
+          <t>570</t>
+        </is>
+      </c>
+      <c r="J343" t="inlineStr"/>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>40849</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G344" t="inlineStr"/>
+      <c r="H344" t="inlineStr"/>
+      <c r="I344" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J344" t="inlineStr"/>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>40849</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G345" t="inlineStr"/>
+      <c r="H345" t="inlineStr"/>
+      <c r="I345" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J345" t="inlineStr"/>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>40849</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G346" t="inlineStr"/>
+      <c r="H346" t="inlineStr"/>
+      <c r="I346" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J346" t="inlineStr"/>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>40850</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G347" t="inlineStr"/>
+      <c r="H347" t="inlineStr"/>
+      <c r="I347" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J347" t="inlineStr"/>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>40850</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G348" t="inlineStr"/>
+      <c r="H348" t="inlineStr"/>
+      <c r="I348" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J348" t="inlineStr"/>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>40850</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G349" t="inlineStr"/>
+      <c r="H349" t="inlineStr"/>
+      <c r="I349" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J349" t="inlineStr"/>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>40851</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G350" t="inlineStr"/>
+      <c r="H350" t="inlineStr"/>
+      <c r="I350" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J350" t="inlineStr"/>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>40851</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G351" t="inlineStr"/>
+      <c r="H351" t="inlineStr"/>
+      <c r="I351" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J351" t="inlineStr"/>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>40854</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G352" t="inlineStr"/>
+      <c r="H352" t="inlineStr"/>
+      <c r="I352" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J352" t="inlineStr"/>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>40854</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G353" t="inlineStr"/>
+      <c r="H353" t="inlineStr"/>
+      <c r="I353" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J353" t="inlineStr"/>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>40854</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G354" t="inlineStr"/>
+      <c r="H354" t="inlineStr"/>
+      <c r="I354" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J354" t="inlineStr"/>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>40857</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G355" t="inlineStr"/>
+      <c r="H355" t="inlineStr"/>
+      <c r="I355" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J355" t="inlineStr"/>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>40857</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G356" t="inlineStr"/>
+      <c r="H356" t="inlineStr"/>
+      <c r="I356" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J356" t="inlineStr"/>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>40857</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G357" t="inlineStr"/>
+      <c r="H357" t="inlineStr"/>
+      <c r="I357" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J357" t="inlineStr"/>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>40858</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G358" t="inlineStr"/>
+      <c r="H358" t="inlineStr"/>
+      <c r="I358" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J358" t="inlineStr"/>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>40858</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G359" t="inlineStr"/>
+      <c r="H359" t="inlineStr"/>
+      <c r="I359" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J359" t="inlineStr"/>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>40858</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G360" t="inlineStr"/>
+      <c r="H360" t="inlineStr"/>
+      <c r="I360" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J360" t="inlineStr"/>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>40859</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G361" t="inlineStr"/>
+      <c r="H361" t="inlineStr"/>
+      <c r="I361" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J361" t="inlineStr"/>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>40859</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G362" t="inlineStr"/>
+      <c r="H362" t="inlineStr"/>
+      <c r="I362" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J362" t="inlineStr"/>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>40859</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G363" t="inlineStr"/>
+      <c r="H363" t="inlineStr"/>
+      <c r="I363" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J363" t="inlineStr"/>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>40860</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G364" t="inlineStr"/>
+      <c r="H364" t="inlineStr"/>
+      <c r="I364" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J364" t="inlineStr"/>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>40860</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G365" t="inlineStr"/>
+      <c r="H365" t="inlineStr"/>
+      <c r="I365" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J365" t="inlineStr"/>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>40860</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G366" t="inlineStr"/>
+      <c r="H366" t="inlineStr"/>
+      <c r="I366" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J366" t="inlineStr"/>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>40862</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G367" t="inlineStr"/>
+      <c r="H367" t="inlineStr"/>
+      <c r="I367" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J367" t="inlineStr"/>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>40862</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G368" t="inlineStr"/>
+      <c r="H368" t="inlineStr"/>
+      <c r="I368" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J368" t="inlineStr"/>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>40862</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G369" t="inlineStr"/>
+      <c r="H369" t="inlineStr"/>
+      <c r="I369" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J369" t="inlineStr"/>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>40863</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G370" t="inlineStr"/>
+      <c r="H370" t="inlineStr"/>
+      <c r="I370" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J370" t="inlineStr"/>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>40863</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G371" t="inlineStr"/>
+      <c r="H371" t="inlineStr"/>
+      <c r="I371" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J371" t="inlineStr"/>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>40863</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G372" t="inlineStr"/>
+      <c r="H372" t="inlineStr"/>
+      <c r="I372" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J372" t="inlineStr"/>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>40864</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G373" t="inlineStr"/>
+      <c r="H373" t="inlineStr"/>
+      <c r="I373" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J373" t="inlineStr"/>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>40864</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G374" t="inlineStr"/>
+      <c r="H374" t="inlineStr"/>
+      <c r="I374" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J374" t="inlineStr"/>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>40864</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G375" t="inlineStr"/>
+      <c r="H375" t="inlineStr"/>
+      <c r="I375" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J375" t="inlineStr"/>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>4019</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>41907</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G376" t="inlineStr"/>
+      <c r="H376" t="inlineStr"/>
+      <c r="I376" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J376" t="inlineStr"/>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>4019</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>41907</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G377" t="inlineStr"/>
+      <c r="H377" t="inlineStr"/>
+      <c r="I377" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J377" t="inlineStr"/>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>4019</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>41907</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G378" t="inlineStr"/>
+      <c r="H378" t="inlineStr"/>
+      <c r="I378" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J378" t="inlineStr"/>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>4022</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>42208</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G379" t="inlineStr"/>
+      <c r="H379" t="inlineStr"/>
+      <c r="I379" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J379" t="inlineStr"/>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>4022</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>42208</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G380" t="inlineStr"/>
+      <c r="H380" t="inlineStr"/>
+      <c r="I380" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J380" t="inlineStr"/>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>4022</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>42208</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G381" t="inlineStr"/>
+      <c r="H381" t="inlineStr"/>
+      <c r="I381" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J381" t="inlineStr"/>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>4022</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>42208</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G382" t="inlineStr"/>
+      <c r="H382" t="inlineStr"/>
+      <c r="I382" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J382" t="inlineStr"/>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>4022</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>42208</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="G383" t="inlineStr"/>
+      <c r="H383" t="inlineStr"/>
+      <c r="I383" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J383" t="inlineStr"/>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>4022</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>42208</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="G384" t="inlineStr"/>
+      <c r="H384" t="inlineStr"/>
+      <c r="I384" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J384" t="inlineStr"/>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>4026</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>42607</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G385" t="inlineStr"/>
+      <c r="H385" t="inlineStr"/>
+      <c r="I385" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J385" t="inlineStr"/>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>4026</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>42607</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G386" t="inlineStr"/>
+      <c r="H386" t="inlineStr"/>
+      <c r="I386" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J386" t="inlineStr"/>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>4026</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>42607</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G387" t="inlineStr"/>
+      <c r="H387" t="inlineStr"/>
+      <c r="I387" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J387" t="inlineStr"/>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>4026</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>42607</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="G388" t="inlineStr"/>
+      <c r="H388" t="inlineStr"/>
+      <c r="I388" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J388" t="inlineStr"/>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>4026</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>42607</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="G389" t="inlineStr"/>
+      <c r="H389" t="inlineStr"/>
+      <c r="I389" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J389" t="inlineStr"/>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>4028</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>42808</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G390" t="inlineStr"/>
+      <c r="H390" t="inlineStr"/>
+      <c r="I390" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J390" t="inlineStr"/>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>4028</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>42808</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G391" t="inlineStr"/>
+      <c r="H391" t="inlineStr"/>
+      <c r="I391" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J391" t="inlineStr"/>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>4028</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>42808</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G392" t="inlineStr"/>
+      <c r="H392" t="inlineStr"/>
+      <c r="I392" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J392" t="inlineStr"/>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>4040</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>44203</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G393" t="inlineStr"/>
+      <c r="H393" t="inlineStr"/>
+      <c r="I393" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J393" t="inlineStr"/>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>4040</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>44203</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G394" t="inlineStr"/>
+      <c r="H394" t="inlineStr"/>
+      <c r="I394" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J394" t="inlineStr"/>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>4040</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>44203</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G395" t="inlineStr"/>
+      <c r="H395" t="inlineStr"/>
+      <c r="I395" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J395" t="inlineStr"/>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>4041</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>44303</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G396" t="inlineStr"/>
+      <c r="H396" t="inlineStr"/>
+      <c r="I396" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J396" t="inlineStr"/>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>4041</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>44303</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G397" t="inlineStr"/>
+      <c r="H397" t="inlineStr"/>
+      <c r="I397" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J397" t="inlineStr"/>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>4041</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>44303</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G398" t="inlineStr"/>
+      <c r="H398" t="inlineStr"/>
+      <c r="I398" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J398" t="inlineStr"/>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>4041</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>44303</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="G399" t="inlineStr"/>
+      <c r="H399" t="inlineStr"/>
+      <c r="I399" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J399" t="inlineStr"/>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>4041</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>44303</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="G400" t="inlineStr"/>
+      <c r="H400" t="inlineStr"/>
+      <c r="I400" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J400" t="inlineStr"/>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>4042</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>44503</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G401" t="inlineStr"/>
+      <c r="H401" t="inlineStr"/>
+      <c r="I401" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J401" t="inlineStr"/>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>4042</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>44503</t>
+        </is>
+      </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G402" t="inlineStr"/>
+      <c r="H402" t="inlineStr"/>
+      <c r="I402" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J402" t="inlineStr"/>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>4042</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>44503</t>
+        </is>
+      </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G403" t="inlineStr"/>
+      <c r="H403" t="inlineStr"/>
+      <c r="I403" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J403" t="inlineStr"/>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>4042</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>44503</t>
+        </is>
+      </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G404" t="inlineStr"/>
+      <c r="H404" t="inlineStr"/>
+      <c r="I404" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J404" t="inlineStr"/>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>4042</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>44503</t>
+        </is>
+      </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="G405" t="inlineStr"/>
+      <c r="H405" t="inlineStr"/>
+      <c r="I405" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J405" t="inlineStr"/>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>4042</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>44503</t>
+        </is>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="G406" t="inlineStr"/>
+      <c r="H406" t="inlineStr"/>
+      <c r="I406" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J406" t="inlineStr"/>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>4801</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>48360</t>
+        </is>
+      </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G407" t="inlineStr"/>
+      <c r="H407" t="inlineStr"/>
+      <c r="I407" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J407" t="inlineStr"/>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>4801</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>48360</t>
+        </is>
+      </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="G408" t="inlineStr"/>
+      <c r="H408" t="inlineStr"/>
+      <c r="I408" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J408" t="inlineStr"/>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>4801</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>48360</t>
+        </is>
+      </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="G409" t="inlineStr"/>
+      <c r="H409" t="inlineStr"/>
+      <c r="I409" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J409" t="inlineStr"/>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>4801</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>48361</t>
+        </is>
+      </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="G410" t="inlineStr"/>
+      <c r="H410" t="inlineStr"/>
+      <c r="I410" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J410" t="inlineStr"/>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>5005</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>50590</t>
+        </is>
+      </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="G411" t="inlineStr"/>
+      <c r="H411" t="inlineStr"/>
+      <c r="I411" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J411" t="inlineStr"/>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>5005</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>50592</t>
+        </is>
+      </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G412" t="inlineStr"/>
+      <c r="H412" t="inlineStr"/>
+      <c r="I412" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J412" t="inlineStr"/>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>5005</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>50592</t>
+        </is>
+      </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G413" t="inlineStr"/>
+      <c r="H413" t="inlineStr"/>
+      <c r="I413" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J413" t="inlineStr"/>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>5005</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>50595</t>
+        </is>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G414" t="inlineStr"/>
+      <c r="H414" t="inlineStr"/>
+      <c r="I414" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J414" t="inlineStr"/>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>5005</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>50595</t>
+        </is>
+      </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G415" t="inlineStr"/>
+      <c r="H415" t="inlineStr"/>
+      <c r="I415" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J415" t="inlineStr"/>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>5005</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>50596</t>
+        </is>
+      </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="G416" t="inlineStr"/>
+      <c r="H416" t="inlineStr"/>
+      <c r="I416" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J416" t="inlineStr"/>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>5005</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>50601</t>
+        </is>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G417" t="inlineStr"/>
+      <c r="H417" t="inlineStr"/>
+      <c r="I417" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J417" t="inlineStr"/>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>5005</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>50601</t>
+        </is>
+      </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G418" t="inlineStr"/>
+      <c r="H418" t="inlineStr"/>
+      <c r="I418" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J418" t="inlineStr"/>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>5005</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>50602</t>
+        </is>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G419" t="inlineStr"/>
+      <c r="H419" t="inlineStr"/>
+      <c r="I419" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J419" t="inlineStr"/>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>5005</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>50602</t>
+        </is>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G420" t="inlineStr"/>
+      <c r="H420" t="inlineStr"/>
+      <c r="I420" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J420" t="inlineStr"/>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>5005</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>50602</t>
+        </is>
+      </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G421" t="inlineStr"/>
+      <c r="H421" t="inlineStr"/>
+      <c r="I421" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J421" t="inlineStr"/>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>5005</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>50602</t>
+        </is>
+      </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G422" t="inlineStr"/>
+      <c r="H422" t="inlineStr"/>
+      <c r="I422" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J422" t="inlineStr"/>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>5005</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>50603</t>
+        </is>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G423" t="inlineStr"/>
+      <c r="H423" t="inlineStr"/>
+      <c r="I423" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J423" t="inlineStr"/>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>5005</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>50603</t>
+        </is>
+      </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G424" t="inlineStr"/>
+      <c r="H424" t="inlineStr"/>
+      <c r="I424" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J424" t="inlineStr"/>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>5005</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>50603</t>
+        </is>
+      </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G425" t="inlineStr"/>
+      <c r="H425" t="inlineStr"/>
+      <c r="I425" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J425" t="inlineStr"/>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>5005</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>50603</t>
+        </is>
+      </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G426" t="inlineStr"/>
+      <c r="H426" t="inlineStr"/>
+      <c r="I426" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J426" t="inlineStr"/>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>5005</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>50603</t>
+        </is>
+      </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G427" t="inlineStr"/>
+      <c r="H427" t="inlineStr"/>
+      <c r="I427" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J427" t="inlineStr"/>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>5005</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>50603</t>
+        </is>
+      </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G428" t="inlineStr"/>
+      <c r="H428" t="inlineStr"/>
+      <c r="I428" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J428" t="inlineStr"/>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>5005</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>50604</t>
+        </is>
+      </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G429" t="inlineStr"/>
+      <c r="H429" t="inlineStr"/>
+      <c r="I429" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J429" t="inlineStr"/>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>5005</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>50604</t>
+        </is>
+      </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G430" t="inlineStr"/>
+      <c r="H430" t="inlineStr"/>
+      <c r="I430" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J430" t="inlineStr"/>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>5005</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>50604</t>
+        </is>
+      </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G431" t="inlineStr"/>
+      <c r="H431" t="inlineStr"/>
+      <c r="I431" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J431" t="inlineStr"/>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>5005</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>50604</t>
+        </is>
+      </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G432" t="inlineStr"/>
+      <c r="H432" t="inlineStr"/>
+      <c r="I432" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J432" t="inlineStr"/>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>5005</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>50605</t>
+        </is>
+      </c>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G433" t="inlineStr"/>
+      <c r="H433" t="inlineStr"/>
+      <c r="I433" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J433" t="inlineStr"/>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>5038</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>50896</t>
+        </is>
+      </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G434" t="inlineStr"/>
+      <c r="H434" t="inlineStr"/>
+      <c r="I434" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J434" t="inlineStr"/>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>5038</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>50896</t>
+        </is>
+      </c>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G435" t="inlineStr"/>
+      <c r="H435" t="inlineStr"/>
+      <c r="I435" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J435" t="inlineStr"/>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>5038</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>50896</t>
+        </is>
+      </c>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G436" t="inlineStr"/>
+      <c r="H436" t="inlineStr"/>
+      <c r="I436" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J436" t="inlineStr"/>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>5038</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>50897</t>
+        </is>
+      </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G437" t="inlineStr"/>
+      <c r="H437" t="inlineStr"/>
+      <c r="I437" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J437" t="inlineStr"/>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>5038</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>50897</t>
+        </is>
+      </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G438" t="inlineStr"/>
+      <c r="H438" t="inlineStr"/>
+      <c r="I438" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J438" t="inlineStr"/>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>5038</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>50897</t>
+        </is>
+      </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G439" t="inlineStr"/>
+      <c r="H439" t="inlineStr"/>
+      <c r="I439" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J439" t="inlineStr"/>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>5038</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>50898</t>
+        </is>
+      </c>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G440" t="inlineStr"/>
+      <c r="H440" t="inlineStr"/>
+      <c r="I440" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J440" t="inlineStr"/>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>5038</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>50898</t>
+        </is>
+      </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G441" t="inlineStr"/>
+      <c r="H441" t="inlineStr"/>
+      <c r="I441" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J441" t="inlineStr"/>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>5038</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>50898</t>
+        </is>
+      </c>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G442" t="inlineStr"/>
+      <c r="H442" t="inlineStr"/>
+      <c r="I442" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J442" t="inlineStr"/>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>5038</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>50899</t>
+        </is>
+      </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G443" t="inlineStr"/>
+      <c r="H443" t="inlineStr"/>
+      <c r="I443" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J443" t="inlineStr"/>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>5038</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>50899</t>
+        </is>
+      </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G444" t="inlineStr"/>
+      <c r="H444" t="inlineStr"/>
+      <c r="I444" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J444" t="inlineStr"/>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>5038</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>50900</t>
+        </is>
+      </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G445" t="inlineStr"/>
+      <c r="H445" t="inlineStr"/>
+      <c r="I445" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J445" t="inlineStr"/>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>5038</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>50900</t>
+        </is>
+      </c>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G446" t="inlineStr"/>
+      <c r="H446" t="inlineStr"/>
+      <c r="I446" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J446" t="inlineStr"/>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>5038</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>50900</t>
+        </is>
+      </c>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G447" t="inlineStr"/>
+      <c r="H447" t="inlineStr"/>
+      <c r="I447" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J447" t="inlineStr"/>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>5038</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>50915</t>
+        </is>
+      </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G448" t="inlineStr"/>
+      <c r="H448" t="inlineStr"/>
+      <c r="I448" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J448" t="inlineStr"/>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>5038</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>50915</t>
+        </is>
+      </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="G449" t="inlineStr"/>
+      <c r="H449" t="inlineStr"/>
+      <c r="I449" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J449" t="inlineStr"/>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>5038</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>50902</t>
+        </is>
+      </c>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G450" t="inlineStr"/>
+      <c r="H450" t="inlineStr"/>
+      <c r="I450" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J450" t="inlineStr"/>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>5038</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>50902</t>
+        </is>
+      </c>
+      <c r="F451" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G451" t="inlineStr"/>
+      <c r="H451" t="inlineStr"/>
+      <c r="I451" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J451" t="inlineStr"/>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>5038</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>50902</t>
+        </is>
+      </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G452" t="inlineStr"/>
+      <c r="H452" t="inlineStr"/>
+      <c r="I452" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J452" t="inlineStr"/>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>5038</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>50903</t>
+        </is>
+      </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G453" t="inlineStr"/>
+      <c r="H453" t="inlineStr"/>
+      <c r="I453" t="inlineStr">
+        <is>
+          <t>570</t>
+        </is>
+      </c>
+      <c r="J453" t="inlineStr"/>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>5038</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>50903</t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G454" t="inlineStr"/>
+      <c r="H454" t="inlineStr"/>
+      <c r="I454" t="inlineStr">
+        <is>
+          <t>570</t>
+        </is>
+      </c>
+      <c r="J454" t="inlineStr"/>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>5038</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>50903</t>
+        </is>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G455" t="inlineStr"/>
+      <c r="H455" t="inlineStr"/>
+      <c r="I455" t="inlineStr">
+        <is>
+          <t>570</t>
+        </is>
+      </c>
+      <c r="J455" t="inlineStr"/>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>5038</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>50904</t>
+        </is>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G456" t="inlineStr"/>
+      <c r="H456" t="inlineStr"/>
+      <c r="I456" t="inlineStr">
+        <is>
+          <t>570</t>
+        </is>
+      </c>
+      <c r="J456" t="inlineStr"/>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>5038</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>50904</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G457" t="inlineStr"/>
+      <c r="H457" t="inlineStr"/>
+      <c r="I457" t="inlineStr">
+        <is>
+          <t>570</t>
+        </is>
+      </c>
+      <c r="J457" t="inlineStr"/>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>5038</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>50904</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G458" t="inlineStr"/>
+      <c r="H458" t="inlineStr"/>
+      <c r="I458" t="inlineStr">
+        <is>
+          <t>570</t>
+        </is>
+      </c>
+      <c r="J458" t="inlineStr"/>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>6021</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>60309</t>
+        </is>
+      </c>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G459" t="inlineStr"/>
+      <c r="H459" t="inlineStr"/>
+      <c r="I459" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J459" t="inlineStr"/>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>6021</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>60309</t>
+        </is>
+      </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G460" t="inlineStr"/>
+      <c r="H460" t="inlineStr"/>
+      <c r="I460" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J460" t="inlineStr"/>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>6024</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>60329</t>
+        </is>
+      </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G461" t="inlineStr"/>
+      <c r="H461" t="inlineStr"/>
+      <c r="I461" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J461" t="inlineStr"/>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>6024</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>60328</t>
+        </is>
+      </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G462" t="inlineStr"/>
+      <c r="H462" t="inlineStr"/>
+      <c r="I462" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J462" t="inlineStr"/>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>6024</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>60331</t>
+        </is>
+      </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G463" t="inlineStr"/>
+      <c r="H463" t="inlineStr"/>
+      <c r="I463" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J463" t="inlineStr"/>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>201920</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>6024</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>60333</t>
+        </is>
+      </c>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G464" t="inlineStr"/>
+      <c r="H464" t="inlineStr"/>
+      <c r="I464" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J464" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/uploads/database.xlsx
+++ b/uploads/database.xlsx
@@ -6476,14 +6476,26 @@
           <t>1</t>
         </is>
       </c>
-      <c r="G153" t="inlineStr"/>
-      <c r="H153" t="inlineStr"/>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>2222</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
       <c r="I153" t="inlineStr">
         <is>
           <t>570</t>
         </is>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -6516,26 +6528,14 @@
           <t>2</t>
         </is>
       </c>
-      <c r="G154" t="inlineStr">
-        <is>
-          <t>3333</t>
-        </is>
-      </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
+      <c r="G154" t="inlineStr"/>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr">
         <is>
           <t>570</t>
         </is>
       </c>
-      <c r="J154" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -6568,26 +6568,14 @@
           <t>41</t>
         </is>
       </c>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>3333</t>
-        </is>
-      </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
+      <c r="G155" t="inlineStr"/>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr">
         <is>
           <t>570</t>
         </is>
       </c>
-      <c r="J155" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -6620,26 +6608,14 @@
           <t>42</t>
         </is>
       </c>
-      <c r="G156" t="inlineStr">
-        <is>
-          <t>3333</t>
-        </is>
-      </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
+      <c r="G156" t="inlineStr"/>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr">
         <is>
           <t>570</t>
         </is>
       </c>
-      <c r="J156" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -12644,26 +12620,14 @@
           <t>17</t>
         </is>
       </c>
-      <c r="G306" t="inlineStr">
-        <is>
-          <t>3333</t>
-        </is>
-      </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
+      <c r="G306" t="inlineStr"/>
+      <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="J306" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -12696,26 +12660,14 @@
           <t>41</t>
         </is>
       </c>
-      <c r="G307" t="inlineStr">
-        <is>
-          <t>3333</t>
-        </is>
-      </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
+      <c r="G307" t="inlineStr"/>
+      <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="J307" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">

--- a/uploads/database.xlsx
+++ b/uploads/database.xlsx
@@ -6476,26 +6476,14 @@
           <t>1</t>
         </is>
       </c>
-      <c r="G153" t="inlineStr">
-        <is>
-          <t>2222</t>
-        </is>
-      </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
+      <c r="G153" t="inlineStr"/>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
           <t>570</t>
         </is>
       </c>
-      <c r="J153" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -12568,26 +12556,14 @@
           <t>1</t>
         </is>
       </c>
-      <c r="G305" t="inlineStr">
-        <is>
-          <t>3333</t>
-        </is>
-      </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
+      <c r="G305" t="inlineStr"/>
+      <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="J305" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
